--- a/uploaded_files/1_2_test0.xlsx
+++ b/uploaded_files/1_2_test0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\gadalka\uploaded_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -357,8 +357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,6 +384,12 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -391,6 +397,12 @@
       </c>
       <c r="B3" s="1">
         <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -400,6 +412,12 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -408,6 +426,12 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>423</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -416,6 +440,12 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -424,6 +454,12 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>234</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -432,6 +468,12 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -440,6 +482,12 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -458,6 +506,9 @@
       </c>
       <c r="B11" s="1">
         <v>10.6</v>
+      </c>
+      <c r="C11">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
